--- a/tests/fixtures/verification/cases/semantic/00014/00014-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00014/00014-wc_lang.xlsx
@@ -9,9 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="30140" windowHeight="7580" tabRatio="500" firstSheet="7" activeTab="16"/>
-    <workbookView xWindow="1780" yWindow="8300" windowWidth="27200" windowHeight="5620" tabRatio="500" firstSheet="4" activeTab="11"/>
-    <workbookView xWindow="1720" yWindow="14000" windowWidth="26560" windowHeight="7600" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="880" yWindow="15040" windowWidth="26780" windowHeight="6560" tabRatio="500" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4230,7 +4228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="218">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4712,9 +4710,6 @@
     <t>cellular_compartment</t>
   </si>
   <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
@@ -4805,18 +4800,12 @@
     <t>Avogadro</t>
   </si>
   <si>
-    <t>Conc. to pop conversion for rate law 1</t>
-  </si>
-  <si>
     <t>vol_c</t>
   </si>
   <si>
     <t>Volume of compartment c</t>
   </si>
   <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
     <t>1 / (Avogadro * vol_c)</t>
   </si>
   <si>
@@ -4832,15 +4821,6 @@
     <t>Density compt. C</t>
   </si>
   <si>
-    <t>Units factor for conv_1 function for rate law 1</t>
-  </si>
-  <si>
-    <t>Units factor for conv_2 function for rate law 2</t>
-  </si>
-  <si>
-    <t>Conc. to pop conversion for rate law 2</t>
-  </si>
-  <si>
     <t>mole / (molecule liter)</t>
   </si>
   <si>
@@ -4850,9 +4830,6 @@
     <t>molecule / mole</t>
   </si>
   <si>
-    <t>test_case_00014</t>
-  </si>
-  <si>
     <t>Basic two reactions with three species in one compartment, with one species having a stoichiometry of 2</t>
   </si>
   <si>
@@ -4871,31 +4848,40 @@
     <t>[c]: S3 ==&gt; (2) S1 + S2</t>
   </si>
   <si>
-    <t>litre^2 mole^-2 second^-1</t>
-  </si>
-  <si>
-    <t>conv_14_1</t>
-  </si>
-  <si>
-    <t>pop_2_conc ** 3</t>
-  </si>
-  <si>
-    <t>mole^3 / (molecule liter)^3</t>
-  </si>
-  <si>
-    <t>conv_14_2</t>
-  </si>
-  <si>
-    <t>units_1</t>
-  </si>
-  <si>
-    <t>units_2</t>
-  </si>
-  <si>
-    <t>conv_14_1 * k1 * S1[c] * S1[c] * S2[c] * vol_c * units_1</t>
-  </si>
-  <si>
-    <t>conv_14_2 * k2 * S3[c] * vol_c * units_2</t>
+    <t>test_case_00014_pop_mass_independent</t>
+  </si>
+  <si>
+    <t>abstract_compartment</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate laws</t>
+  </si>
+  <si>
+    <t>Avogadro * rl_units_conv</t>
+  </si>
+  <si>
+    <t>k2 * S3[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>k1 * S1[c] * S1[c] * S2[c] * pop_2_conc**3 * vol_c * conv</t>
+  </si>
+  <si>
+    <t>Must equal volume of c in Compartments</t>
+  </si>
+  <si>
+    <t>rl_units_conv</t>
+  </si>
+  <si>
+    <t>Units conversion</t>
+  </si>
+  <si>
+    <t>1 / molecule</t>
+  </si>
+  <si>
+    <t>liter^2 mole^-2 second^-1</t>
   </si>
 </sst>
 </file>
@@ -4906,7 +4892,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4955,12 +4941,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -5121,17 +5101,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5145,12 +5121,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5195,15 +5165,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5512,8 +5491,6 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5798,9 +5775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5991,17 +5966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
@@ -6013,8 +5984,8 @@
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="20"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -6026,10 +5997,10 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -6053,16 +6024,16 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>194</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6072,16 +6043,16 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6090,18 +6061,10 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6109,90 +6072,42 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A5:A6">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C9:C10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D9:D10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E9:E10"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F9:F10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G9:G10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H9:H10">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C5:C6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D5:D6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E5:E6"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F5:F6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G5:G6"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H5:H6">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I9:I10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I5:I6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6203,9 +6118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6240,13 +6153,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="51" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6301,22 +6214,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6329,22 +6242,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6545,11 +6458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6622,19 +6531,19 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6644,20 +6553,20 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6823,9 +6732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7076,8 +6983,6 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7297,8 +7202,6 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7537,12 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7552,7 +7451,7 @@
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="17" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
@@ -7568,7 +7467,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="43"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7585,13 +7484,13 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7610,20 +7509,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="42">
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="39">
         <v>10000</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>0</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>213</v>
+      <c r="F3" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7631,29 +7530,29 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="34">
-        <v>180</v>
-      </c>
-      <c r="E4" s="32">
+    <row r="4" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>172</v>
+      <c r="F4" s="47" t="s">
+        <v>171</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="19">
@@ -7662,8 +7561,8 @@
       <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>183</v>
+      <c r="F5" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7671,62 +7570,68 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33">
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="32">
         <v>6.0221408570000002E+23</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="51" t="s">
-        <v>205</v>
+      <c r="E6" s="30"/>
+      <c r="F6" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="54" t="s">
-        <v>198</v>
+      <c r="J6" s="53" t="s">
+        <v>195</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="19">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="54">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="39" t="s">
-        <v>204</v>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="19">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="39" t="s">
-        <v>204</v>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -7740,7 +7645,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7753,7 +7658,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7766,7 +7671,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -7813,8 +7718,6 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8006,8 +7909,6 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8049,42 +7950,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="51" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="51" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8497,13 +8398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8552,7 +8447,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8781,8 +8676,6 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8927,8 +8820,6 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8961,10 +8852,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="51" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -9229,8 +9120,6 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9583,8 +9472,6 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9838,8 +9725,6 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10178,8 +10063,6 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10209,7 +10092,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10241,7 +10124,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10273,7 +10156,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10325,8 +10208,6 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10484,8 +10365,6 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10665,11 +10544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10710,29 +10585,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="51" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="51" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10817,27 +10692,27 @@
         <v>159</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="45" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="43">
         <v>0</v>
       </c>
-      <c r="K4" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>163</v>
+      <c r="K4" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -10858,9 +10733,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -11137,10 +11012,6 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="B4" sqref="B4:B6"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11171,22 +11042,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="51" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11242,85 +11113,85 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="37">
+      <c r="G4" s="34">
         <v>1</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="37">
+      <c r="G5" s="34">
         <v>1</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="38">
+      <c r="G6" s="35">
         <v>3</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -11331,7 +11202,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -11484,11 +11355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="A3" sqref="A3:A5"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11544,17 +11411,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11564,17 +11431,17 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11584,17 +11451,17 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11737,11 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11806,23 +11669,23 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="40" t="s">
-        <v>167</v>
+      <c r="C3" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="14">
         <v>1E-4</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="35">
         <v>0</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>169</v>
+      <c r="G3" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -11832,23 +11695,23 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="40" t="s">
-        <v>168</v>
+      <c r="C4" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="14">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>169</v>
+      <c r="G4" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -11858,23 +11721,23 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="41" t="s">
-        <v>209</v>
+      <c r="C5" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="14">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="35">
         <v>0</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>169</v>
+      <c r="G5" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>

--- a/tests/fixtures/verification/cases/semantic/00014/00014-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00014/00014-wc_lang.xlsx
@@ -2957,7 +2957,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3180,7 +3180,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="25" t="n"/>
@@ -3370,7 +3370,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3757,7 +3757,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4062,7 +4062,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4332,7 +4332,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4567,7 +4567,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4827,7 +4827,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5157,7 +5157,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5374,7 +5374,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5904,7 +5904,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6225,7 +6225,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6389,7 +6389,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6724,7 +6724,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7120,7 +7120,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7405,7 +7405,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7775,7 +7775,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7945,7 +7945,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8123,7 +8123,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8333,7 +8333,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8834,7 +8834,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9223,7 +9223,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1" ht="15" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
